--- a/data/trans_dic/P37A$otros-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P37A$otros-Edad-trans_dic.xlsx
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.005018650810435604</v>
+        <v>0.005017651588872836</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.005140403840407946</v>
+        <v>0.005098194782372294</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.004467627185049391</v>
+        <v>0.004508552735963124</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.003677142018701761</v>
+        <v>0.003745576915493612</v>
       </c>
     </row>
     <row r="6">
@@ -751,37 +751,37 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.01208453742579356</v>
+        <v>0.01059636504246485</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03148890895895115</v>
+        <v>0.03245305934270477</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03402654168156257</v>
+        <v>0.04619613355620627</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.00944835557016121</v>
+        <v>0.009383514349115323</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01320457762032078</v>
+        <v>0.01297994715350382</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02459856670321864</v>
+        <v>0.02268979314194541</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05299103589361116</v>
+        <v>0.05083432570849849</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.004597490812622867</v>
+        <v>0.005357448101342356</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.007906363484785585</v>
+        <v>0.006774063766047602</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02009131205878032</v>
+        <v>0.0207147549612917</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02911810208557978</v>
+        <v>0.03005182549253158</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.003332536595674278</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.009641795787216516</v>
+        <v>0.009641795787216518</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.0007645789212031618</v>
@@ -829,7 +829,7 @@
         <v>0.002511687062950531</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.006753321155975587</v>
+        <v>0.006753321155975588</v>
       </c>
     </row>
     <row r="8">
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.002153715340840412</v>
+        <v>0.002169275187272978</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0007674640972843671</v>
+        <v>0.0007679448590066774</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.002040186346238139</v>
+        <v>0.001982875434697652</v>
       </c>
     </row>
     <row r="9">
@@ -882,38 +882,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.008995840159337304</v>
+        <v>0.007088598847541809</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.007020003004745332</v>
+        <v>0.007049383863048561</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.008759724919181882</v>
+        <v>0.009241476356062589</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02050069755394754</v>
+        <v>0.02097003983668088</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.009461463909778717</v>
+        <v>0.006859629419474768</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01194231647001765</v>
+        <v>0.01010687766798877</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02637131492564794</v>
+        <v>0.02792501406082048</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.004021263705492883</v>
+        <v>0.003818295194998784</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.005328268187028759</v>
+        <v>0.004679146519564941</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.006747418068146121</v>
+        <v>0.006898963696270456</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01583395661810739</v>
+        <v>0.01750608049903057</v>
       </c>
     </row>
     <row r="10">
@@ -976,30 +976,30 @@
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
-        <v>0.001578439416039576</v>
+        <v>0.001568954314892861</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.006314733319986233</v>
+        <v>0.006284447588504584</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>0.001522721509716488</v>
+        <v>0.001498806598738861</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.005960753403206114</v>
+        <v>0.006146420873777854</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0006565177298353973</v>
+        <v>0.0006537109300464353</v>
       </c>
       <c r="L11" s="5" t="inlineStr"/>
       <c r="M11" s="5" t="n">
-        <v>0.002704523608492375</v>
+        <v>0.002869190687896276</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.008182459885030189</v>
+        <v>0.008310071779090265</v>
       </c>
     </row>
     <row r="12">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.009783907187177839</v>
+        <v>0.009593587118269993</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.01710274190691763</v>
+        <v>0.01828222058857117</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02884885670770998</v>
+        <v>0.02870569048678263</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.007278508079392149</v>
+        <v>0.007088334215104283</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.01715334234436878</v>
+        <v>0.01609246591234128</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02241961581445404</v>
+        <v>0.02238111191732319</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.006259675686337709</v>
+        <v>0.005379727988150547</v>
       </c>
       <c r="L12" s="5" t="inlineStr"/>
       <c r="M12" s="5" t="n">
-        <v>0.01233318896561577</v>
+        <v>0.01225705822237947</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0215530631314652</v>
+        <v>0.02243623080372853</v>
       </c>
     </row>
     <row r="13">
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.008416860794743302</v>
+        <v>0.008416860794743301</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.001920792345455583</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.009096201104722769</v>
+        <v>0.009096201104722772</v>
       </c>
     </row>
     <row r="14">
@@ -1099,7 +1099,7 @@
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.003179956532689729</v>
+        <v>0.003162950922849094</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" s="5" t="inlineStr"/>
       <c r="J14" s="5" t="n">
-        <v>0.005112003765756318</v>
+        <v>0.004762653239579647</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
@@ -1115,7 +1115,7 @@
       <c r="L14" s="5" t="inlineStr"/>
       <c r="M14" s="5" t="inlineStr"/>
       <c r="N14" s="5" t="n">
-        <v>0.005341096181909591</v>
+        <v>0.00510148737426907</v>
       </c>
     </row>
     <row r="15">
@@ -1129,23 +1129,23 @@
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.01879503954075112</v>
+        <v>0.01849875859069721</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.009731692684586592</v>
+        <v>0.01184919797613072</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.01692269239496189</v>
+        <v>0.016311244768318</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.005376399969446955</v>
+        <v>0.004815109833089684</v>
       </c>
       <c r="L15" s="5" t="inlineStr"/>
       <c r="M15" s="5" t="inlineStr"/>
       <c r="N15" s="5" t="n">
-        <v>0.01501077229411845</v>
+        <v>0.0149493852141846</v>
       </c>
     </row>
     <row r="16">
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.009650748437707217</v>
+        <v>0.009650748437707215</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0</v>
@@ -1207,7 +1207,7 @@
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>0.004143949427479089</v>
+        <v>0.003803521453504607</v>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.006876668350944838</v>
+        <v>0.007021257818987237</v>
       </c>
       <c r="K17" s="5" t="inlineStr"/>
       <c r="L17" s="5" t="n">
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.005847742145439043</v>
+        <v>0.00665846032589442</v>
       </c>
     </row>
     <row r="18">
@@ -1241,27 +1241,27 @@
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.02097606378450972</v>
+        <v>0.01920283924135142</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.01400508581253448</v>
+        <v>0.01507812357509917</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0105633779705659</v>
+        <v>0.01066166721200122</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02047112266879694</v>
+        <v>0.02115963339936047</v>
       </c>
       <c r="K18" s="5" t="inlineStr"/>
       <c r="L18" s="5" t="n">
-        <v>0.007153596690420886</v>
+        <v>0.008237173601795567</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.005350262616758203</v>
+        <v>0.006445911557843802</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0173898538945661</v>
+        <v>0.01752684978971093</v>
       </c>
     </row>
     <row r="19">
@@ -1297,7 +1297,7 @@
         <v>0.005023787640149653</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.006627519575413652</v>
+        <v>0.006627519575413651</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.001210668187188882</v>
@@ -1325,7 +1325,7 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.006874180687892658</v>
+        <v>0.006861385681316766</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="n">
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.002293581266362577</v>
+        <v>0.002526086379467279</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.005659088818120812</v>
+        <v>0.006303647108578611</v>
       </c>
     </row>
     <row r="21">
@@ -1358,34 +1358,34 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01557620496230741</v>
+        <v>0.01332806746260486</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.03151198402385848</v>
+        <v>0.03069441248727111</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.01350063251694374</v>
+        <v>0.0132820022636103</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.01796986185989266</v>
+        <v>0.01994056273963113</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0142803540481616</v>
+        <v>0.0152320376148948</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.006080271270968271</v>
+        <v>0.007255651983259906</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.007821059702001452</v>
+        <v>0.005693893388802914</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.01116311515420512</v>
+        <v>0.009303206672730494</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.01972579816909004</v>
+        <v>0.01903371568116363</v>
       </c>
     </row>
     <row r="22">
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.004958030327400802</v>
+        <v>0.004958030327400801</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.002427381011748755</v>
@@ -1433,7 +1433,7 @@
         <v>0.00246348206840718</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.004173213597200062</v>
+        <v>0.004173213597200061</v>
       </c>
     </row>
     <row r="23">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="I23" s="5" t="inlineStr"/>
       <c r="J23" s="5" t="n">
-        <v>0.001267748654771142</v>
+        <v>0.001273944590879705</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>0</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.001493983088629085</v>
+        <v>0.001511291003539046</v>
       </c>
     </row>
     <row r="24">
@@ -1484,32 +1484,32 @@
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.01918776182088822</v>
+        <v>0.02211695855292313</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01540374807228853</v>
+        <v>0.01662939466035128</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02215734010691483</v>
+        <v>0.02181407366760247</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.01805371737887296</v>
+        <v>0.01522767297335317</v>
       </c>
       <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="n">
-        <v>0.01212999570313619</v>
+        <v>0.01234861716101305</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01353345625939388</v>
+        <v>0.01376977567101026</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.007420175603976037</v>
+        <v>0.007385521314267584</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.007896811378176561</v>
+        <v>0.008592651897908405</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.00944421988009298</v>
+        <v>0.009253199608971918</v>
       </c>
     </row>
     <row r="25">
@@ -1533,7 +1533,7 @@
         <v>0.003705843536354739</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.009304857811204256</v>
+        <v>0.009304857811204255</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.00123473881142692</v>
@@ -1557,7 +1557,7 @@
         <v>0.003497415942638065</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.009908743652142475</v>
+        <v>0.009908743652142471</v>
       </c>
     </row>
     <row r="26">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0002693537033697703</v>
+        <v>0.0002652827796223801</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.001908215248224411</v>
+        <v>0.001854016867011989</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.00636393247469071</v>
+        <v>0.006320184992850576</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0002929374524505126</v>
+        <v>0.0003885584790671905</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.0005581612647865218</v>
+        <v>0.0005480701302000877</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.001788119160726037</v>
+        <v>0.001746150669219554</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.007827818658528562</v>
+        <v>0.007920205978707384</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.0005145551213557105</v>
+        <v>0.0005282195708414597</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.0004238992720510955</v>
+        <v>0.0004474408532681308</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.002219199395015459</v>
+        <v>0.00227129287474801</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.007721699397380198</v>
+        <v>0.00775315108588155</v>
       </c>
     </row>
     <row r="27">
@@ -1612,40 +1612,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.002520631719592284</v>
+        <v>0.002493271250658491</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.00198003213668661</v>
+        <v>0.002063150028326012</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.006636762364796529</v>
+        <v>0.006607660991285741</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01385215385745679</v>
+        <v>0.01386230002536737</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.002946339723928275</v>
+        <v>0.003288383968618526</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.003341852054076225</v>
+        <v>0.003388041014813208</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.005933446970710551</v>
+        <v>0.005818055545248589</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01434917173141325</v>
+        <v>0.01465375677489759</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.002261977869129661</v>
+        <v>0.002285702454601631</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.00212103269004861</v>
+        <v>0.002063724531528434</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.00514908710837895</v>
+        <v>0.005275412355832646</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.01293613886144544</v>
+        <v>0.01275045990228167</v>
       </c>
     </row>
     <row r="28">
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1863</v>
+        <v>1848</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
@@ -1947,10 +1947,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3642</v>
+        <v>3675</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2833</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="7">
@@ -1962,37 +1962,37 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>5488</v>
+        <v>4812</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13208</v>
+        <v>13613</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>13876</v>
+        <v>18838</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4417</v>
+        <v>4387</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5681</v>
+        <v>5584</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9735</v>
+        <v>8980</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>19210</v>
+        <v>18428</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>4421</v>
+        <v>5151</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>6992</v>
+        <v>5991</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>16379</v>
+        <v>16887</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>22430</v>
+        <v>23149</v>
       </c>
     </row>
     <row r="8">
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1081</v>
+        <v>1088</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>886</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1997</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="11">
@@ -2137,38 +2137,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6616</v>
+        <v>5214</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4823</v>
+        <v>4844</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5173</v>
+        <v>5457</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>9777</v>
+        <v>10000</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>5774</v>
+        <v>4186</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6730</v>
+        <v>5696</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>13231</v>
+        <v>14011</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>5473</v>
+        <v>5197</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>6913</v>
+        <v>6070</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>7787</v>
+        <v>7962</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>15495</v>
+        <v>17132</v>
       </c>
     </row>
     <row r="12">
@@ -2275,30 +2275,30 @@
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3920</v>
+        <v>3902</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>1007</v>
+        <v>991</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3715</v>
+        <v>3830</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="L14" s="6" t="inlineStr"/>
       <c r="M14" s="6" t="n">
-        <v>3598</v>
+        <v>3817</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>10179</v>
+        <v>10338</v>
       </c>
     </row>
     <row r="15">
@@ -2309,34 +2309,34 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6249</v>
+        <v>6127</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>11443</v>
+        <v>12233</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>17910</v>
+        <v>17822</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5020</v>
+        <v>4889</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>11345</v>
+        <v>10643</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>13972</v>
+        <v>13948</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8315</v>
+        <v>7146</v>
       </c>
       <c r="L15" s="6" t="inlineStr"/>
       <c r="M15" s="6" t="n">
-        <v>16409</v>
+        <v>16308</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>26813</v>
+        <v>27911</v>
       </c>
     </row>
     <row r="16">
@@ -2442,7 +2442,7 @@
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>2228</v>
+        <v>2216</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>3767</v>
+        <v>3510</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
@@ -2458,7 +2458,7 @@
       <c r="L18" s="6" t="inlineStr"/>
       <c r="M18" s="6" t="inlineStr"/>
       <c r="N18" s="6" t="n">
-        <v>7678</v>
+        <v>7333</v>
       </c>
     </row>
     <row r="19">
@@ -2472,23 +2472,23 @@
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>13168</v>
+        <v>12961</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5018</v>
+        <v>6110</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>12470</v>
+        <v>12020</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>5563</v>
+        <v>4983</v>
       </c>
       <c r="L19" s="6" t="inlineStr"/>
       <c r="M19" s="6" t="inlineStr"/>
       <c r="N19" s="6" t="n">
-        <v>21578</v>
+        <v>21490</v>
       </c>
     </row>
     <row r="20">
@@ -2594,7 +2594,7 @@
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
-        <v>2525</v>
+        <v>2318</v>
       </c>
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="n">
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>4187</v>
+        <v>4275</v>
       </c>
       <c r="K22" s="6" t="inlineStr"/>
       <c r="L22" s="6" t="n">
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>7124</v>
+        <v>8111</v>
       </c>
     </row>
     <row r="23">
@@ -2628,27 +2628,27 @@
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>12782</v>
+        <v>11701</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>6271</v>
+        <v>6752</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5248</v>
+        <v>5297</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>12464</v>
+        <v>12883</v>
       </c>
       <c r="K23" s="6" t="inlineStr"/>
       <c r="L23" s="6" t="n">
-        <v>6275</v>
+        <v>7226</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5215</v>
+        <v>6283</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>21184</v>
+        <v>21351</v>
       </c>
     </row>
     <row r="24">
@@ -2756,7 +2756,7 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>2798</v>
+        <v>2793</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1007</v>
+        <v>1109</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>4789</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="27">
@@ -2789,34 +2789,34 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4557</v>
+        <v>3900</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>12828</v>
+        <v>12495</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>4779</v>
+        <v>4702</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>6788</v>
+        <v>7533</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>6271</v>
+        <v>6689</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3864</v>
+        <v>4611</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>5191</v>
+        <v>3780</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>7949</v>
+        <v>6625</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>16693</v>
+        <v>16107</v>
       </c>
     </row>
     <row r="28">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="I30" s="6" t="inlineStr"/>
       <c r="J30" s="6" t="n">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K30" s="6" t="n">
         <v>0</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1158</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="31">
@@ -2959,32 +2959,32 @@
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>4931</v>
+        <v>5684</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>4778</v>
+        <v>5158</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>7399</v>
+        <v>7284</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>7023</v>
+        <v>5923</v>
       </c>
       <c r="I31" s="6" t="inlineStr"/>
       <c r="J31" s="6" t="n">
-        <v>5636</v>
+        <v>5737</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>7359</v>
+        <v>7488</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>4740</v>
+        <v>4718</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>5190</v>
+        <v>5647</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>7317</v>
+        <v>7169</v>
       </c>
     </row>
     <row r="32">
@@ -3087,40 +3087,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>6477</v>
+        <v>6293</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>22482</v>
+        <v>22328</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>990</v>
+        <v>1313</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1986</v>
+        <v>1950</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>6338</v>
+        <v>6189</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>29252</v>
+        <v>29597</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>3425</v>
+        <v>3516</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>2961</v>
+        <v>3125</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>15399</v>
+        <v>15760</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>56135</v>
+        <v>56363</v>
       </c>
     </row>
     <row r="35">
@@ -3131,40 +3131,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>8259</v>
+        <v>8169</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>6785</v>
+        <v>7070</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>22527</v>
+        <v>22429</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>48936</v>
+        <v>48972</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>9956</v>
+        <v>11112</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>11891</v>
+        <v>12056</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>21031</v>
+        <v>20622</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>53622</v>
+        <v>54760</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>15055</v>
+        <v>15213</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>14816</v>
+        <v>14415</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>35729</v>
+        <v>36606</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>94042</v>
+        <v>92692</v>
       </c>
     </row>
     <row r="36">
